--- a/bin/Planificacion.xlsx
+++ b/bin/Planificacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
   <si>
     <t>Distribución de Tareas</t>
   </si>
@@ -43,6 +43,39 @@
   </si>
   <si>
     <t>Ejecución Testing Funcional</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Implementación Vista Web</t>
+  </si>
+  <si>
+    <t>Implementación Fuentes Externas</t>
+  </si>
+  <si>
+    <t>Implementación Procesador de Información</t>
+  </si>
+  <si>
+    <t>Implementación Manejador de Permisos</t>
+  </si>
+  <si>
+    <t>Implementación API</t>
+  </si>
+  <si>
+    <t>Implementación Noticieros</t>
+  </si>
+  <si>
+    <t>Implementación Usuarios</t>
+  </si>
+  <si>
+    <t>Implementación Noticias</t>
+  </si>
+  <si>
+    <t>Generación Plan de Carga</t>
+  </si>
+  <si>
+    <t>Ejecución Testing de Carga</t>
   </si>
 </sst>
 </file>
@@ -382,15 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="18" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -450,45 +484,284 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
